--- a/SellyExcel/WPM 화면관리 및 프로젝트 관리.xlsx
+++ b/SellyExcel/WPM 화면관리 및 프로젝트 관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29103FA3-20A9-A74D-AA1C-86846BE56CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3622727-20DC-1640-9E3D-46173F195B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="13480" windowWidth="26300" windowHeight="14940" xr2:uid="{548DB2EC-D3F6-1D49-A2E5-F96F5813669A}"/>
+    <workbookView xWindow="17500" yWindow="13300" windowWidth="26300" windowHeight="14940" xr2:uid="{548DB2EC-D3F6-1D49-A2E5-F96F5813669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>관리 카테고리</t>
-  </si>
-  <si>
-    <t>관리 카테고리 클릭</t>
   </si>
   <si>
     <t>클릭</t>
@@ -605,7 +602,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -616,189 +613,189 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -806,176 +803,176 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
